--- a/similarities/split_global/harmonic_similarity_timestamps_319.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_319.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,758 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
+          <t>['Db:7/3', 'Gb:maj6', 'Ab:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['C:7', 'F:maj6', 'G:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:23.500000', '0:02:56.780000')]</t>
+          <t>('0:00:37.190000', '0:00:38.860000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:43.320000')]</t>
+          <t>('0:00:44.220000', '0:00:48.090000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=143.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=37.19</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=44.22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['F:7', 'Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
+          <t>['C:7', 'F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:00:20.050000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:16.853782')]</t>
+          <t>('0:01:14.380000', '0:01:30.640000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=20.05</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=74.38</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Db', 'Ab:7', 'Db']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000'), ('0:04:12.800000', '0:04:14.460000')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:15.880000', '0:00:17.370000'), ('0:01:21.770000', '0:01:27.560000')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=252.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=81.77']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:35.140000', '0:00:39.900000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:16.080000')]</t>
+          <t>('0:00:39.900000', '0:00:41.520000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=39.9</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:37.738798', '0:00:47.769818')]</t>
+          <t>('0:00:00.380000', '0:00:06.260000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02.360000')]</t>
+          <t>('0:00:03.320000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=37.738798']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+          <t>('0:01:58.440000', '0:02:01.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
+          <t>('0:01:23.760000', '0:01:32.660000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:33.260000', '0:01:42.460000')]</t>
+          <t>('0:01:25.160000', '0:01:34.900000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=96.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=83.76</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=93.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=85.16</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_215</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['B:min/5', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:06.090000', '0:00:09.538163')]</t>
+          <t>('0:00:06.920000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:04:04.440000', '0:04:06.500000')]</t>
+          <t>('0:00:23.632675', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-215#t=6.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=244.44']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:00:06.950000', '0:00:14.410000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:20.340000', '0:00:28.440000')]</t>
+          <t>('0:00:51.800000', '0:00:59.900000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=6.95</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=20.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min'], ['A#:7', 'D#', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min', 'F:maj', 'A#:min'], ['G#:7', 'C#:maj', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:23.300000', '0:00:29.360000'), ('0:00:07.620000', '0:00:11.120000'), ('0:00:12.280000', '0:00:19.740000'), ('0:00:36.300000', '0:00:38.620000'), ('0:00:41.080000', '0:00:42.940000')]</t>
+          <t>('0:00:08.540000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:25.480000', '0:00:32.800000'), ('0:00:11.700000', '0:00:20.020000'), ('0:00:36.980000', '0:00:42.420000'), ('0:00:35.220000', '0:00:40')]</t>
+          <t>('0:00:01', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=7.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=36.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=25.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=36.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:25.477221')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:04.605000', '0:00:21.095000')]</t>
+          <t>('0:01:43.520929', '0:01:48.664149')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:05.840000', '0:00:12.720000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:00:00.360000', '0:00:05')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>['F', 'C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:23.980000', '0:00:31.920000')]</t>
+          <t>('0:02:01.080000', '0:02:02.360000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:19.440000')]</t>
+          <t>('0:01:00.276984', '0:01:27.246961')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=23.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=7.9']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=60.276984</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:12.272131', '0:01:19.249727')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:32.040000', '0:01:44.400000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=72.272131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:12.824000', '0:00:20.865000')]</t>
+          <t>('0:00:43.340000', '0:00:59.340000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:27.660000', '0:01:36.720000')]</t>
+          <t>('0:01:03.100000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
